--- a/참고자료/GEP_MASTER_V1.0.xlsx
+++ b/참고자료/GEP_MASTER_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Project\ACIUS4\BROKER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Project\GEPv1.0\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F14A92-98C9-4E57-A3D8-052FF09BDFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2018841-A6A6-42E6-955E-CD31EF09130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11039,12 +11039,14 @@
   <dimension ref="A1:O1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A1411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1441" sqref="A1441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="70.75" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="19.625" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
